--- a/Planilhas/População SEXO NACIONAL.xlsx
+++ b/Planilhas/População SEXO NACIONAL.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -486,8 +486,10 @@
           <t>Homens</t>
         </is>
       </c>
-      <c r="D2" t="n">
-        <v>96535</v>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>96535</t>
+        </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -519,8 +521,10 @@
           <t>Homens</t>
         </is>
       </c>
-      <c r="D3" t="n">
-        <v>96738</v>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>96738</t>
+        </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -552,8 +556,10 @@
           <t>Homens</t>
         </is>
       </c>
-      <c r="D4" t="n">
-        <v>96941</v>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>96941</t>
+        </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -585,8 +591,10 @@
           <t>Homens</t>
         </is>
       </c>
-      <c r="D5" t="n">
-        <v>97144</v>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>97144</t>
+        </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -618,8 +626,10 @@
           <t>Homens</t>
         </is>
       </c>
-      <c r="D6" t="n">
-        <v>97347</v>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>97347</t>
+        </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -651,8 +661,10 @@
           <t>Homens</t>
         </is>
       </c>
-      <c r="D7" t="n">
-        <v>97550</v>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>97550</t>
+        </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -684,8 +696,10 @@
           <t>Homens</t>
         </is>
       </c>
-      <c r="D8" t="n">
-        <v>97753</v>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>97753</t>
+        </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -717,8 +731,10 @@
           <t>Homens</t>
         </is>
       </c>
-      <c r="D9" t="n">
-        <v>97956</v>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>97956</t>
+        </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -750,8 +766,10 @@
           <t>Homens</t>
         </is>
       </c>
-      <c r="D10" t="n">
-        <v>98159</v>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>98159</t>
+        </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -783,8 +801,10 @@
           <t>Homens</t>
         </is>
       </c>
-      <c r="D11" t="n">
-        <v>98362</v>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>98362</t>
+        </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -816,8 +836,10 @@
           <t>Homens</t>
         </is>
       </c>
-      <c r="D12" t="n">
-        <v>98564</v>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>98564</t>
+        </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -849,8 +871,10 @@
           <t>Homens</t>
         </is>
       </c>
-      <c r="D13" t="n">
-        <v>98767</v>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>98767</t>
+        </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -882,8 +906,10 @@
           <t>Homens</t>
         </is>
       </c>
-      <c r="D14" t="n">
-        <v>98970</v>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>98970</t>
+        </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -915,8 +941,10 @@
           <t>Homens</t>
         </is>
       </c>
-      <c r="D15" t="n">
-        <v>99172</v>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>99172</t>
+        </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -948,8 +976,10 @@
           <t>Homens</t>
         </is>
       </c>
-      <c r="D16" t="n">
-        <v>99374</v>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>99374</t>
+        </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -981,8 +1011,10 @@
           <t>Homens</t>
         </is>
       </c>
-      <c r="D17" t="n">
-        <v>99575</v>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>99575</t>
+        </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1014,8 +1046,10 @@
           <t>Homens</t>
         </is>
       </c>
-      <c r="D18" t="n">
-        <v>99776</v>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>99776</t>
+        </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1047,8 +1081,10 @@
           <t>Homens</t>
         </is>
       </c>
-      <c r="D19" t="n">
-        <v>99976</v>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>99976</t>
+        </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1080,8 +1116,10 @@
           <t>Homens</t>
         </is>
       </c>
-      <c r="D20" t="n">
-        <v>100176</v>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>100176</t>
+        </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1113,8 +1151,10 @@
           <t>Homens</t>
         </is>
       </c>
-      <c r="D21" t="n">
-        <v>100375</v>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>100375</t>
+        </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1146,8 +1186,10 @@
           <t>Homens</t>
         </is>
       </c>
-      <c r="D22" t="n">
-        <v>100574</v>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>100574</t>
+        </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1179,8 +1221,10 @@
           <t>Homens</t>
         </is>
       </c>
-      <c r="D23" t="n">
-        <v>100773</v>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>100773</t>
+        </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1212,8 +1256,10 @@
           <t>Homens</t>
         </is>
       </c>
-      <c r="D24" t="n">
-        <v>100971</v>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>100971</t>
+        </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1245,8 +1291,10 @@
           <t>Homens</t>
         </is>
       </c>
-      <c r="D25" t="n">
-        <v>101168</v>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>101168</t>
+        </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1278,8 +1326,10 @@
           <t>Homens</t>
         </is>
       </c>
-      <c r="D26" t="n">
-        <v>101365</v>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>101365</t>
+        </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1311,8 +1361,10 @@
           <t>Homens</t>
         </is>
       </c>
-      <c r="D27" t="n">
-        <v>101561</v>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>101561</t>
+        </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1344,8 +1396,10 @@
           <t>Homens</t>
         </is>
       </c>
-      <c r="D28" t="n">
-        <v>101756</v>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>101756</t>
+        </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1377,8 +1431,10 @@
           <t>Homens</t>
         </is>
       </c>
-      <c r="D29" t="n">
-        <v>101951</v>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>101951</t>
+        </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1410,8 +1466,10 @@
           <t>Homens</t>
         </is>
       </c>
-      <c r="D30" t="n">
-        <v>102144</v>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>102144</t>
+        </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1443,8 +1501,10 @@
           <t>Homens</t>
         </is>
       </c>
-      <c r="D31" t="n">
-        <v>102337</v>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>102337</t>
+        </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1476,8 +1536,10 @@
           <t>Homens</t>
         </is>
       </c>
-      <c r="D32" t="n">
-        <v>102529</v>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>102529</t>
+        </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1509,8 +1571,10 @@
           <t>Homens</t>
         </is>
       </c>
-      <c r="D33" t="n">
-        <v>102719</v>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>102719</t>
+        </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1542,8 +1606,10 @@
           <t>Homens</t>
         </is>
       </c>
-      <c r="D34" t="n">
-        <v>102908</v>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>102908</t>
+        </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1575,8 +1641,10 @@
           <t>Homens</t>
         </is>
       </c>
-      <c r="D35" t="n">
-        <v>104559</v>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>104559</t>
+        </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1608,8 +1676,10 @@
           <t>Homens</t>
         </is>
       </c>
-      <c r="D36" t="n">
-        <v>104735</v>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>104735</t>
+        </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1641,8 +1711,10 @@
           <t>Homens</t>
         </is>
       </c>
-      <c r="D37" t="n">
-        <v>104910</v>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>104910</t>
+        </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1674,8 +1746,10 @@
           <t>Homens</t>
         </is>
       </c>
-      <c r="D38" t="n">
-        <v>105084</v>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>105084</t>
+        </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -1707,8 +1781,10 @@
           <t>Homens</t>
         </is>
       </c>
-      <c r="D39" t="n">
-        <v>105256</v>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>105256</t>
+        </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -1740,8 +1816,10 @@
           <t>Homens</t>
         </is>
       </c>
-      <c r="D40" t="n">
-        <v>105426</v>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>105426</t>
+        </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -1773,8 +1851,10 @@
           <t>Mulheres</t>
         </is>
       </c>
-      <c r="D41" t="n">
-        <v>100539</v>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>100539</t>
+        </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -1806,8 +1886,10 @@
           <t>Mulheres</t>
         </is>
       </c>
-      <c r="D42" t="n">
-        <v>100765</v>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>100765</t>
+        </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -1839,8 +1921,10 @@
           <t>Mulheres</t>
         </is>
       </c>
-      <c r="D43" t="n">
-        <v>100990</v>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>100990</t>
+        </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -1872,8 +1956,10 @@
           <t>Mulheres</t>
         </is>
       </c>
-      <c r="D44" t="n">
-        <v>101216</v>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>101216</t>
+        </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -1905,8 +1991,10 @@
           <t>Mulheres</t>
         </is>
       </c>
-      <c r="D45" t="n">
-        <v>101442</v>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>101442</t>
+        </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -1938,8 +2026,10 @@
           <t>Mulheres</t>
         </is>
       </c>
-      <c r="D46" t="n">
-        <v>101668</v>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>101668</t>
+        </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -1971,8 +2061,10 @@
           <t>Mulheres</t>
         </is>
       </c>
-      <c r="D47" t="n">
-        <v>101893</v>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>101893</t>
+        </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -2004,8 +2096,10 @@
           <t>Mulheres</t>
         </is>
       </c>
-      <c r="D48" t="n">
-        <v>102118</v>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>102118</t>
+        </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -2037,8 +2131,10 @@
           <t>Mulheres</t>
         </is>
       </c>
-      <c r="D49" t="n">
-        <v>102343</v>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>102343</t>
+        </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -2070,8 +2166,10 @@
           <t>Mulheres</t>
         </is>
       </c>
-      <c r="D50" t="n">
-        <v>102568</v>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>102568</t>
+        </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -2103,8 +2201,10 @@
           <t>Mulheres</t>
         </is>
       </c>
-      <c r="D51" t="n">
-        <v>102792</v>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>102792</t>
+        </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -2136,8 +2236,10 @@
           <t>Mulheres</t>
         </is>
       </c>
-      <c r="D52" t="n">
-        <v>103016</v>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>103016</t>
+        </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -2169,8 +2271,10 @@
           <t>Mulheres</t>
         </is>
       </c>
-      <c r="D53" t="n">
-        <v>103239</v>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>103239</t>
+        </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -2202,8 +2306,10 @@
           <t>Mulheres</t>
         </is>
       </c>
-      <c r="D54" t="n">
-        <v>103462</v>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>103462</t>
+        </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -2235,8 +2341,10 @@
           <t>Mulheres</t>
         </is>
       </c>
-      <c r="D55" t="n">
-        <v>103684</v>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>103684</t>
+        </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -2268,8 +2376,10 @@
           <t>Mulheres</t>
         </is>
       </c>
-      <c r="D56" t="n">
-        <v>103907</v>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>103907</t>
+        </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -2301,8 +2411,10 @@
           <t>Mulheres</t>
         </is>
       </c>
-      <c r="D57" t="n">
-        <v>104128</v>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>104128</t>
+        </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -2334,8 +2446,10 @@
           <t>Mulheres</t>
         </is>
       </c>
-      <c r="D58" t="n">
-        <v>104349</v>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>104349</t>
+        </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -2367,8 +2481,10 @@
           <t>Mulheres</t>
         </is>
       </c>
-      <c r="D59" t="n">
-        <v>104570</v>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>104570</t>
+        </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -2400,8 +2516,10 @@
           <t>Mulheres</t>
         </is>
       </c>
-      <c r="D60" t="n">
-        <v>104790</v>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>104790</t>
+        </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -2433,8 +2551,10 @@
           <t>Mulheres</t>
         </is>
       </c>
-      <c r="D61" t="n">
-        <v>105009</v>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>105009</t>
+        </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -2466,8 +2586,10 @@
           <t>Mulheres</t>
         </is>
       </c>
-      <c r="D62" t="n">
-        <v>105227</v>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>105227</t>
+        </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -2499,8 +2621,10 @@
           <t>Mulheres</t>
         </is>
       </c>
-      <c r="D63" t="n">
-        <v>105444</v>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>105444</t>
+        </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -2532,8 +2656,10 @@
           <t>Mulheres</t>
         </is>
       </c>
-      <c r="D64" t="n">
-        <v>105661</v>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>105661</t>
+        </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -2565,8 +2691,10 @@
           <t>Mulheres</t>
         </is>
       </c>
-      <c r="D65" t="n">
-        <v>105876</v>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>105876</t>
+        </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -2598,8 +2726,10 @@
           <t>Mulheres</t>
         </is>
       </c>
-      <c r="D66" t="n">
-        <v>106090</v>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>106090</t>
+        </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -2631,8 +2761,10 @@
           <t>Mulheres</t>
         </is>
       </c>
-      <c r="D67" t="n">
-        <v>106304</v>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>106304</t>
+        </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -2664,8 +2796,10 @@
           <t>Mulheres</t>
         </is>
       </c>
-      <c r="D68" t="n">
-        <v>106517</v>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>106517</t>
+        </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -2697,8 +2831,10 @@
           <t>Mulheres</t>
         </is>
       </c>
-      <c r="D69" t="n">
-        <v>106729</v>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>106729</t>
+        </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -2730,8 +2866,10 @@
           <t>Mulheres</t>
         </is>
       </c>
-      <c r="D70" t="n">
-        <v>106940</v>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>106940</t>
+        </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -2763,8 +2901,10 @@
           <t>Mulheres</t>
         </is>
       </c>
-      <c r="D71" t="n">
-        <v>107149</v>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>107149</t>
+        </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -2796,8 +2936,10 @@
           <t>Mulheres</t>
         </is>
       </c>
-      <c r="D72" t="n">
-        <v>107358</v>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>107358</t>
+        </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -2829,8 +2971,10 @@
           <t>Mulheres</t>
         </is>
       </c>
-      <c r="D73" t="n">
-        <v>107566</v>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>107566</t>
+        </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -2862,8 +3006,10 @@
           <t>Mulheres</t>
         </is>
       </c>
-      <c r="D74" t="n">
-        <v>109381</v>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>109381</t>
+        </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -2895,8 +3041,10 @@
           <t>Mulheres</t>
         </is>
       </c>
-      <c r="D75" t="n">
-        <v>109576</v>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>109576</t>
+        </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -2928,8 +3076,10 @@
           <t>Mulheres</t>
         </is>
       </c>
-      <c r="D76" t="n">
-        <v>109770</v>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>109770</t>
+        </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -2961,8 +3111,10 @@
           <t>Mulheres</t>
         </is>
       </c>
-      <c r="D77" t="n">
-        <v>109962</v>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>109962</t>
+        </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -2994,8 +3146,10 @@
           <t>Mulheres</t>
         </is>
       </c>
-      <c r="D78" t="n">
-        <v>110152</v>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>110152</t>
+        </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -3027,8 +3181,10 @@
           <t>Mulheres</t>
         </is>
       </c>
-      <c r="D79" t="n">
-        <v>110341</v>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>110341</t>
+        </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
